--- a/cea/databases/LATAM/assemblies/SUPPLY.xlsx
+++ b/cea/databases/LATAM/assemblies/SUPPLY.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/LATAM/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C347E401-F147-524F-B473-203CD4FD6186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367AC149-13D4-9E4E-8592-4237CB7F3E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" tabRatio="993" activeTab="1"/>
+    <workbookView xWindow="-200" yWindow="760" windowWidth="30240" windowHeight="17340" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="22" r:id="rId1"/>
@@ -22,12 +22,14 @@
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
     <definedName name="__xlfn_STDEV_S">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
@@ -38,12 +40,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno Fonseca</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -72,12 +74,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno Fonseca</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -106,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="78">
   <si>
     <t>Description</t>
   </si>
@@ -174,151 +176,181 @@
     <t>CITY</t>
   </si>
   <si>
+    <t>CAPEX_USD2015kW</t>
+  </si>
+  <si>
+    <t>heatpump - air/air</t>
+  </si>
+  <si>
+    <t>district heating - natural gas-fired boiler</t>
+  </si>
+  <si>
+    <t>district heating - heatpump - soil/water</t>
+  </si>
+  <si>
+    <t>district heating - heat pump - water/water</t>
+  </si>
+  <si>
+    <t>district cooling  - Lakewater/water</t>
+  </si>
+  <si>
+    <t>district cooling  - air/air</t>
+  </si>
+  <si>
+    <t>Connolly et al. (2013). Costs in the EU boiler &lt;25 kW)</t>
+  </si>
+  <si>
+    <t>LT_yr</t>
+  </si>
+  <si>
+    <t>O&amp;M_%</t>
+  </si>
+  <si>
+    <t>IR_%</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS1</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS0</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS2</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS3</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS4</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS5</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS6</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS7</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS8</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS9</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS10</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS11</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS1</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS0</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS2</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS3</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS4</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS5</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS6</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS7</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS8</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS9</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS10</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS11</t>
+  </si>
+  <si>
+    <t>SUPPLY_COOLING_AS0</t>
+  </si>
+  <si>
+    <t>SUPPLY_COOLING_AS1</t>
+  </si>
+  <si>
+    <t>SUPPLY_COOLING_AS2</t>
+  </si>
+  <si>
+    <t>SUPPLY_COOLING_AS3</t>
+  </si>
+  <si>
+    <t>SUPPLY_COOLING_AS4</t>
+  </si>
+  <si>
+    <t>SUPPLY_ELECTRICITY_AS1</t>
+  </si>
+  <si>
+    <t>SUPPLY_ELECTRICITY_AS0</t>
+  </si>
+  <si>
+    <t>Asuming 2000 USD for a 12kW boiler</t>
+  </si>
+  <si>
+    <t>feedstock1</t>
+  </si>
+  <si>
+    <t>scale1</t>
+  </si>
+  <si>
+    <t>efficiency1</t>
+  </si>
+  <si>
+    <t>feedstock2</t>
+  </si>
+  <si>
+    <t>scale2</t>
+  </si>
+  <si>
+    <t>efficiency2</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
     <t>feedstock</t>
   </si>
   <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>efficiency</t>
-  </si>
-  <si>
-    <t>CAPEX_USD2015kW</t>
-  </si>
-  <si>
-    <t>heatpump - air/air</t>
-  </si>
-  <si>
-    <t>district heating - natural gas-fired boiler</t>
-  </si>
-  <si>
-    <t>district heating - heatpump - soil/water</t>
-  </si>
-  <si>
-    <t>district heating - heat pump - water/water</t>
-  </si>
-  <si>
-    <t>district cooling  - Lakewater/water</t>
-  </si>
-  <si>
-    <t>district cooling  - air/air</t>
-  </si>
-  <si>
-    <t>Connolly et al. (2013). Costs in the EU boiler &lt;25 kW)</t>
-  </si>
-  <si>
-    <t>LT_yr</t>
-  </si>
-  <si>
-    <t>O&amp;M_%</t>
-  </si>
-  <si>
-    <t>IR_%</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS1</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS0</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS2</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS3</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS4</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS5</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS6</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS7</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS8</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS9</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS10</t>
-  </si>
-  <si>
-    <t>SUPPLY_HEATING_AS11</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS1</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS0</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS2</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS3</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS4</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS5</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS6</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS7</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS8</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS9</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS10</t>
-  </si>
-  <si>
-    <t>SUPPLY_HOTWATER_AS11</t>
-  </si>
-  <si>
-    <t>SUPPLY_COOLING_AS0</t>
-  </si>
-  <si>
-    <t>SUPPLY_COOLING_AS1</t>
-  </si>
-  <si>
-    <t>SUPPLY_COOLING_AS2</t>
-  </si>
-  <si>
-    <t>SUPPLY_COOLING_AS3</t>
-  </si>
-  <si>
-    <t>SUPPLY_COOLING_AS4</t>
-  </si>
-  <si>
-    <t>SUPPLY_ELECTRICITY_AS1</t>
-  </si>
-  <si>
-    <t>SUPPLY_ELECTRICITY_AS0</t>
-  </si>
-  <si>
-    <t>Asuming 2000 USD for a 12kW boiler</t>
+    <t>SUPPLY_ELECTRICITY_AS2</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
+  </si>
+  <si>
+    <t>area_pv</t>
+  </si>
+  <si>
+    <t>Swiss consumer energy mix  + 20m2  PV onsite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="179" formatCode="0.0"/>
-    <numFmt numFmtId="180" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -456,7 +488,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -464,26 +496,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -492,11 +524,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -927,11 +962,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -957,25 +992,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
@@ -986,7 +1021,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -1018,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
@@ -1042,7 +1077,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1050,7 +1085,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
@@ -1074,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1082,7 +1117,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
@@ -1106,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1114,7 +1149,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
@@ -1146,7 +1181,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>8</v>
@@ -1178,7 +1213,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
@@ -1207,10 +1242,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
@@ -1242,7 +1277,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>5</v>
@@ -1271,10 +1306,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -1303,10 +1338,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -1335,10 +1370,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -1372,11 +1407,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1402,25 +1437,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
@@ -1431,7 +1466,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -1463,7 +1498,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
@@ -1487,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1495,7 +1530,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
@@ -1519,7 +1554,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1527,7 +1562,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
@@ -1551,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1559,7 +1594,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
@@ -1583,7 +1618,7 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1591,7 +1626,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>8</v>
@@ -1623,7 +1658,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
@@ -1652,10 +1687,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
@@ -1687,7 +1722,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>5</v>
@@ -1716,10 +1751,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -1748,10 +1783,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -1780,10 +1815,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -1817,11 +1852,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="I1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1847,25 +1882,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
@@ -1876,7 +1911,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -1905,10 +1940,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -1940,7 +1975,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -1969,10 +2004,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
@@ -2001,10 +2036,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
@@ -2037,11 +2072,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2051,15 +2086,19 @@
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" customWidth="1"/>
-    <col min="10" max="10" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="256" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" customWidth="1"/>
+    <col min="14" max="14" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="260" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2067,36 +2106,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -2107,28 +2158,40 @@
       <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="10">
-        <v>20</v>
-      </c>
-      <c r="H2" s="10">
-        <v>1</v>
-      </c>
-      <c r="I2" s="10">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10">
+        <v>20</v>
+      </c>
+      <c r="L2" s="10">
+        <v>1</v>
+      </c>
+      <c r="M2" s="10">
+        <v>5</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>5</v>
@@ -2139,19 +2202,75 @@
       <c r="E3" s="7">
         <v>0.99</v>
       </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
-        <v>20</v>
-      </c>
-      <c r="H3" s="10">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10">
-        <v>5</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10">
+        <v>20</v>
+      </c>
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
+        <v>5</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I4" s="13">
+        <v>20</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K4" s="10">
+        <v>20</v>
+      </c>
+      <c r="L4" s="10">
+        <v>1</v>
+      </c>
+      <c r="M4" s="10">
+        <v>5</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>10</v>
       </c>
     </row>

--- a/cea/databases/LATAM/assemblies/SUPPLY.xlsx
+++ b/cea/databases/LATAM/assemblies/SUPPLY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/LATAM/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367AC149-13D4-9E4E-8592-4237CB7F3E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9D31FF-3BA6-F74A-B5FD-3F7AF1E7B618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-200" yWindow="760" windowWidth="30240" windowHeight="17340" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
   <si>
     <t>Description</t>
   </si>
@@ -305,24 +305,6 @@
     <t>Asuming 2000 USD for a 12kW boiler</t>
   </si>
   <si>
-    <t>feedstock1</t>
-  </si>
-  <si>
-    <t>scale1</t>
-  </si>
-  <si>
-    <t>efficiency1</t>
-  </si>
-  <si>
-    <t>feedstock2</t>
-  </si>
-  <si>
-    <t>scale2</t>
-  </si>
-  <si>
-    <t>efficiency2</t>
-  </si>
-  <si>
     <t>efficiency</t>
   </si>
   <si>
@@ -335,13 +317,16 @@
     <t>SUPPLY_ELECTRICITY_AS2</t>
   </si>
   <si>
-    <t>SOLAR</t>
-  </si>
-  <si>
     <t>area_pv</t>
   </si>
   <si>
     <t>Swiss consumer energy mix  + 20m2  PV onsite</t>
+  </si>
+  <si>
+    <t>efficiency_pv</t>
+  </si>
+  <si>
+    <t>CAPEX_PV_USD2015kW</t>
   </si>
 </sst>
 </file>
@@ -992,13 +977,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
@@ -1437,13 +1422,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
@@ -1882,13 +1867,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
@@ -2073,32 +2058,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="92.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" customWidth="1"/>
-    <col min="14" max="14" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="260" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="249" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2106,43 +2080,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -2158,11 +2123,11 @@
       <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
       </c>
       <c r="H2" s="4">
         <v>0</v>
@@ -2170,23 +2135,14 @@
       <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="J2" s="4">
-        <v>0</v>
+      <c r="J2" s="10">
+        <v>20</v>
       </c>
       <c r="K2" s="10">
-        <v>20</v>
-      </c>
-      <c r="L2" s="10">
-        <v>1</v>
-      </c>
-      <c r="M2" s="10">
-        <v>5</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -2202,40 +2158,31 @@
       <c r="E3" s="7">
         <v>0.99</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>3</v>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
       </c>
       <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="6">
         <v>0</v>
       </c>
-      <c r="J3" s="6">
-        <v>1</v>
+      <c r="J3" s="10">
+        <v>20</v>
       </c>
       <c r="K3" s="10">
-        <v>20</v>
-      </c>
-      <c r="L3" s="10">
-        <v>1</v>
-      </c>
-      <c r="M3" s="10">
-        <v>5</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>5</v>
@@ -2246,32 +2193,23 @@
       <c r="E4" s="3">
         <v>0.99</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13">
+        <v>20</v>
       </c>
       <c r="H4" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I4" s="13">
-        <v>20</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="I4" s="6">
         <v>2000</v>
       </c>
+      <c r="J4" s="10">
+        <v>20</v>
+      </c>
       <c r="K4" s="10">
-        <v>20</v>
-      </c>
-      <c r="L4" s="10">
-        <v>1</v>
-      </c>
-      <c r="M4" s="10">
-        <v>5</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/LATAM/assemblies/SUPPLY.xlsx
+++ b/cea/databases/LATAM/assemblies/SUPPLY.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/LATAM/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9D31FF-3BA6-F74A-B5FD-3F7AF1E7B618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DDE09A-1335-D747-BA1A-52251058FEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-200" yWindow="760" windowWidth="30240" windowHeight="17340" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="22" r:id="rId1"/>
     <sheet name="HOT_WATER" sheetId="25" r:id="rId2"/>
     <sheet name="COOLING" sheetId="23" r:id="rId3"/>
     <sheet name="ELECTRICITY" sheetId="24" r:id="rId4"/>
+    <sheet name="ELECTRICITY_PV" sheetId="26" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="76">
   <si>
     <t>Description</t>
   </si>
@@ -317,16 +318,25 @@
     <t>SUPPLY_ELECTRICITY_AS2</t>
   </si>
   <si>
-    <t>area_pv</t>
-  </si>
-  <si>
     <t>Swiss consumer energy mix  + 20m2  PV onsite</t>
   </si>
   <si>
-    <t>efficiency_pv</t>
-  </si>
-  <si>
-    <t>CAPEX_PV_USD2015kW</t>
+    <t>component</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>SUPPLY_ELECTRICITY_PV_AS0</t>
+  </si>
+  <si>
+    <t>20 m2 Fotovoltaic installation Moncrytalline</t>
+  </si>
+  <si>
+    <t>SUPPLY_ELECTRICITY_PV_AS1</t>
+  </si>
+  <si>
+    <t>PV1</t>
   </si>
 </sst>
 </file>
@@ -473,7 +483,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -508,9 +518,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2058,21 +2065,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="92.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="249" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="246" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2092,22 +2099,13 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -2126,23 +2124,14 @@
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
-        <v>20</v>
-      </c>
-      <c r="K2" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G2" s="10">
+        <v>20</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -2161,25 +2150,16 @@
       <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
-        <v>20</v>
-      </c>
-      <c r="K3" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G3" s="10">
+        <v>20</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>68</v>
@@ -2196,23 +2176,80 @@
       <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="13">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I4" s="6">
-        <v>2000</v>
-      </c>
-      <c r="J4" s="10">
-        <v>20</v>
-      </c>
-      <c r="K4" s="10">
+      <c r="G4" s="10">
+        <v>20</v>
+      </c>
+      <c r="H4" s="10">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DA3A30-FE0C-F444-808E-0298DCCCC16F}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="6">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cea/databases/LATAM/assemblies/SUPPLY.xlsx
+++ b/cea/databases/LATAM/assemblies/SUPPLY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/LATAM/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DDE09A-1335-D747-BA1A-52251058FEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8520559C-936B-5A4D-9C64-4065B960579C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,9 +324,6 @@
     <t>component</t>
   </si>
   <si>
-    <t>area</t>
-  </si>
-  <si>
     <t>SUPPLY_ELECTRICITY_PV_AS0</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>PV1</t>
+  </si>
+  <si>
+    <t>area_pv</t>
   </si>
 </sst>
 </file>
@@ -2193,7 +2193,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2209,7 +2209,7 @@
         <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2220,7 +2220,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -2234,13 +2234,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="D3" s="6">
         <v>20</v>

--- a/cea/databases/LATAM/assemblies/SUPPLY.xlsx
+++ b/cea/databases/LATAM/assemblies/SUPPLY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/LATAM/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8520559C-936B-5A4D-9C64-4065B960579C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028CD811-DB49-ED43-945B-9E2C5608C064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="75">
   <si>
     <t>Description</t>
   </si>
@@ -321,9 +321,6 @@
     <t>Swiss consumer energy mix  + 20m2  PV onsite</t>
   </si>
   <si>
-    <t>component</t>
-  </si>
-  <si>
     <t>SUPPLY_ELECTRICITY_PV_AS0</t>
   </si>
   <si>
@@ -333,10 +330,10 @@
     <t>SUPPLY_ELECTRICITY_PV_AS1</t>
   </si>
   <si>
-    <t>PV1</t>
-  </si>
-  <si>
     <t>area_pv</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
   </si>
 </sst>
 </file>
@@ -2190,15 +2187,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DA3A30-FE0C-F444-808E-0298DCCCC16F}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2206,46 +2207,100 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="6">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="F3" s="6">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>10</v>
       </c>
     </row>

--- a/cea/databases/LATAM/assemblies/SUPPLY.xlsx
+++ b/cea/databases/LATAM/assemblies/SUPPLY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/LATAM/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028CD811-DB49-ED43-945B-9E2C5608C064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1E5E52-9ED8-CB48-9903-7179A3DE6DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2190,7 +2190,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2289,7 +2289,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="6">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H3" s="5">
         <v>20</v>
